--- a/tools/qna/train_test.xlsx
+++ b/tools/qna/train_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\KSNU\3_1_머신러닝종합설계\haksa-bot\haksaBot\tools\qna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D85CD47-85B6-4852-9A2E-CE10085FA133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B6C989-7C5A-465A-B1E9-382AA4B38F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{46720DC1-1BEC-466A-941B-D5517BDAB7C9}"/>
+    <workbookView xWindow="10230" yWindow="2610" windowWidth="16785" windowHeight="11250" xr2:uid="{46720DC1-1BEC-466A-941B-D5517BDAB7C9}"/>
   </bookViews>
   <sheets>
     <sheet name="질문" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="316">
   <si>
     <t>의도(키워드)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,55 +180,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>복수전공 신청일을 알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부전공 신청일을 알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[복수, 부전공 및 공유전공 신청 일정입니다.]
 - 11/28(목) ~ 12/04(수)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공유전공 신청일을 알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴업일 중 수업결손 보강일을 알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2학기 성적 입력일을 알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동계 계절수업 개강일을 알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2학기 성적열람 및 정정일을 알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동계 계절수업 종강일을 알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1학기 수강신청일을 알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기 학위수여식일을 알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025학년도 1학기 재학생 정규 등록 기간일을 알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C프로그래밍 강의시간은 언제야?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -799,30 +755,6 @@
   <si>
     <t>[ 2025학년도 1학기 재학생 정규 등록 기간 일정입니다. ]
 - 02/24(월) ~ 02/26(수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ 1학기 1학년 전공 수업 목록입니다 .]
-- C프로그래밍 (담당교수 : 박상준 교수님)
-- 컴퓨터개론 (담당교수 : 이창우 교수님)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ 1학기 3학년 전공 수업 목록입니다. ]
-- Web프로그래밍(1) (담당교수 : 이종찬 교수님)
-- 게임공학 (담당교수 : 신성윤)
-- 디지털 영상처리 (담당교수 : 엄경배 교수님)
-- 머신러닝 종합설계 (담당교수 : 이종찬 교수님)
-- 시스템분석 및 설계(담당교수 : 최미란 교수님)
--정보, 컴퓨터 교과 논리및 논술(담당교수 : 남광우 교수님)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ 1학기 4학년 전공 수업 목록 입니다. ]
-- 3D애니메이션 (담당교수 : 유기현 교수님)
-- SNS설계 (담당교수 : 권오천 교수님)
-- 캡스톤디자인 (담당교수 : 권오천 교수님)
-- 프로그래밍 언어론(담당교수 : 신성윤 교수님)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1367,50 +1299,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2학기 개강일을 알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2학기 수강신청 변경일을 알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2학기 수강신청 취소일을 알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2학기 복학마감일을 알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024학년도 황룡제천을 알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교수강의평가일을 알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴학 마감일을 알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중간고사 일정을 알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>졸업논문 심사결과 보고일을 알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2학기 기말 교수강의평가일을 알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2학기 종강을 알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자바프로그래밍 강의시간은 언제야?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1452,7 +1340,125 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[ 1학기 2학년 전공 수업 목록입니다. ]
+    <t>학과사무실 몇층이야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2학기 개강일이 언제야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2학기 수강신청 변경일이 언제야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2학기 수강신청 취소일이 언제야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2학기 복학마감일이 언제야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024학년도 황룡제천이 언제야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수강의평가일이 언제야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과사무실 운영시간이 언제야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴학 마감일이 언제야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간고사 일정이 언제야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업논문 심사결과 보고일이 언제야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복수전공 신청일이 언제야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부전공 신청일이 언제야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유전공 신청일이 언제야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴업일 중 수업결손 보강일이 언제야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2학기 기말 교수강의평가일이 언제야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2학기 기말고사 일정이 언제야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2학기 종강이 언제야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2학기 성적 입력일이 언제야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동계 계절수업 개강일이 언제야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2학기 성적열람 및 정정일이 언제야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동계 계절수업 종강일이 언제야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025학년도 1학기 휴학,복학 신청일이 언제야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1학기 수강신청일이 언제야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기 학위수여식일이 언제야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025학년도 1학기 재학생 정규 등록 기간일이 언제야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1학년 1학기 전공수업을 알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ 1학년 1학기 전공 수업 목록입니다 .]
+- C프로그래밍 (담당교수 : 박상준 교수님)
+- 컴퓨터개론 (담당교수 : 이창우 교수님)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ 2학년 1학기 전공 수업 목록입니다. ]
 - 데이터베이스 (담당교수 : 남광우 교수님)
 - 컴퓨터구조론 (담당교수 : 이창우 교수님)
 - Java프로그래밍 (담당교수 : 이종구 교수님)
@@ -1462,35 +1468,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>학과사무실 운영시간 알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1학기 1학년 전공수업을 알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1학기 2학년 전공수업을 알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1학기 3학년 전공수업을 알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1학기 4학년 전공수업을 알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025학년도 1학기 휴학,복학 신청일을 알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2학기 기말고사 일정 알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학과사무실 몇층이야?</t>
+    <t>2학년 1학기 전공수업을 알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3학년 1학기 전공수업을 알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ 3학년 1학기 전공 수업 목록입니다. ]
+- Web프로그래밍(1) (담당교수 : 이종찬 교수님)
+- 게임공학 (담당교수 : 신성윤)
+- 디지털 영상처리 (담당교수 : 엄경배 교수님)
+- 머신러닝 종합설계 (담당교수 : 이종찬 교수님)
+- 시스템분석 및 설계(담당교수 : 최미란 교수님)
+-정보, 컴퓨터 교과 논리및 논술(담당교수 : 남광우 교수님)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ 4학년 1학기 전공 수업 목록 입니다. ]
+- 3D애니메이션 (담당교수 : 유기현 교수님)
+- SNS설계 (담당교수 : 권오천 교수님)
+- 캡스톤디자인 (담당교수 : 권오천 교수님)
+- 프로그래밍 언어론(담당교수 : 신성윤 교수님)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4학년 1학기 전공수업을 알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1890,9 +1894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B726B3C-0500-4E20-A4CC-92052906B56C}">
   <dimension ref="A1:N183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1914,80 +1916,80 @@
     </row>
     <row r="2" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="L6" s="2"/>
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="L7" s="2"/>
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B8" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
@@ -1997,529 +1999,524 @@
     </row>
     <row r="9" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="L9" s="2"/>
       <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="L10" s="2"/>
       <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="L11" s="4"/>
       <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>293</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="L12" s="4"/>
       <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>294</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="L13" s="4"/>
       <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>295</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L14" s="4"/>
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>296</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="L15" s="4"/>
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B16" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="L16" s="4"/>
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B17" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="L17" s="4"/>
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B18" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="L18" s="4"/>
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>301</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>277</v>
+      </c>
+      <c r="B21" t="s">
         <v>302</v>
       </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>302</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>303</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B24" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>305</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>306</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>307</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="B29" t="s">
         <v>308</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>181</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="B30" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="198" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="B31" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>182</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="132" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="B32" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>183</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="99" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B37" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="L37" s="4"/>
       <c r="N37" s="3"/>
     </row>
     <row r="38" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="L38" s="4"/>
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" ht="99" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="L39" s="4"/>
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="L40" s="4"/>
       <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:14" ht="99" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="L41" s="4"/>
       <c r="N41" s="3"/>
     </row>
     <row r="42" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B42" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="L42" s="4"/>
       <c r="N42" s="3"/>
     </row>
     <row r="43" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="L43" s="4"/>
       <c r="N43" s="3"/>
     </row>
     <row r="44" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="L44" s="4"/>
       <c r="N44" s="3"/>
     </row>
     <row r="45" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="L46" s="4"/>
       <c r="N46" s="3"/>
     </row>
     <row r="47" spans="1:14" ht="99" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="L47" s="4"/>
       <c r="N47" s="3"/>
     </row>
     <row r="48" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="L48" s="4"/>
       <c r="N48" s="3"/>
     </row>
     <row r="49" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="L49" s="4"/>
       <c r="N49" s="3"/>
     </row>
     <row r="50" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="L50" s="4"/>
       <c r="N50" s="3"/>
     </row>
     <row r="51" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="L51" s="4"/>
       <c r="N51" s="3"/>
     </row>
     <row r="52" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="L52" s="4"/>
       <c r="N52" s="3"/>
     </row>
     <row r="53" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="L53" s="4"/>
       <c r="N53" s="3"/>
     </row>
     <row r="54" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B54" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>3</v>
@@ -2527,10 +2524,10 @@
     </row>
     <row r="55" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B55" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>3</v>
@@ -2540,7 +2537,7 @@
     </row>
     <row r="56" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B56" t="s">
         <v>4</v>
@@ -2551,7 +2548,7 @@
     </row>
     <row r="57" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
@@ -2562,7 +2559,7 @@
     </row>
     <row r="58" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
@@ -2573,834 +2570,834 @@
     </row>
     <row r="59" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B59" t="s">
         <v>10</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B60" t="s">
         <v>11</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B61" t="s">
         <v>12</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B62" t="s">
         <v>13</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B63" t="s">
         <v>14</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B64" t="s">
         <v>15</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B65" t="s">
         <v>16</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B66" t="s">
         <v>17</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B67" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="198" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B68" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="280.5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B69" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B70" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B72" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B73" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B74" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B75" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B76" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B77" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B78" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B79" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B80" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B81" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B82" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B83" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B84" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B85" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B86" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B87" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B88" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B89" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B90" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B91" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B92" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B93" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B94" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B95" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B96" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B97" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B98" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B99" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B100" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="99" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B101" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B102" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="132" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B103" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="99" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B104" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B105" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B106" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B107" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B108" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B109" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="132" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B110" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="132" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B111" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="132" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B112" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B113" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="99" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B114" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B115" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B116" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B117" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B118" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="99" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B119" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B120" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>301</v>
+      <c r="A121" s="4" t="s">
+        <v>282</v>
       </c>
       <c r="B121" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>301</v>
+      <c r="A122" s="4" t="s">
+        <v>282</v>
       </c>
       <c r="B122" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>301</v>
+      <c r="A123" s="4" t="s">
+        <v>282</v>
       </c>
       <c r="B123" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>301</v>
+      <c r="A124" s="4" t="s">
+        <v>282</v>
       </c>
       <c r="B124" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="J124" s="4"/>
       <c r="L124" s="3"/>
     </row>
     <row r="125" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>301</v>
+      <c r="A125" s="4" t="s">
+        <v>282</v>
       </c>
       <c r="B125" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="J125" s="4"/>
       <c r="L125" s="3"/>
     </row>
     <row r="126" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>301</v>
+      <c r="A126" s="4" t="s">
+        <v>282</v>
       </c>
       <c r="B126" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="J126" s="4"/>
       <c r="L126" s="3"/>
     </row>
     <row r="127" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>301</v>
+      <c r="A127" s="4" t="s">
+        <v>282</v>
       </c>
       <c r="B127" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="J127" s="4"/>
       <c r="L127" s="5"/>
     </row>
     <row r="128" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>301</v>
+      <c r="A128" s="4" t="s">
+        <v>282</v>
       </c>
       <c r="B128" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="J128" s="4"/>
       <c r="L128" s="6"/>
     </row>
     <row r="129" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>301</v>
+      <c r="A129" s="4" t="s">
+        <v>282</v>
       </c>
       <c r="B129" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="J129" s="4"/>
       <c r="L129" s="3"/>
     </row>
     <row r="130" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>301</v>
+      <c r="A130" s="4" t="s">
+        <v>282</v>
       </c>
       <c r="B130" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="J130" s="4"/>
       <c r="L130" s="3"/>
     </row>
     <row r="131" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>301</v>
+      <c r="A131" s="4" t="s">
+        <v>282</v>
       </c>
       <c r="B131" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="J131" s="4"/>
       <c r="L131" s="3"/>
     </row>
     <row r="132" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>301</v>
+      <c r="A132" s="4" t="s">
+        <v>282</v>
       </c>
       <c r="B132" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="J132" s="4"/>
       <c r="L132" s="3"/>
     </row>
     <row r="133" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>301</v>
+      <c r="A133" s="4" t="s">
+        <v>282</v>
       </c>
       <c r="B133" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="J133" s="4"/>
       <c r="L133" s="3"/>
@@ -3410,335 +3407,335 @@
       <c r="L134" s="3"/>
     </row>
     <row r="135" spans="1:12" ht="165" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>301</v>
+      <c r="A135" s="4" t="s">
+        <v>282</v>
       </c>
       <c r="B135" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="J135" s="4"/>
       <c r="L135" s="3"/>
     </row>
     <row r="136" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="B136" t="s">
         <v>18</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="B137" t="s">
         <v>19</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="B138" t="s">
         <v>20</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="B139" t="s">
         <v>21</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="B140" t="s">
         <v>22</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="B141" t="s">
         <v>23</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="B142" t="s">
         <v>24</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="B143" t="s">
         <v>25</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="B145" t="s">
         <v>26</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="B146" t="s">
         <v>27</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="B147" t="s">
         <v>28</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="B148" t="s">
         <v>29</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="B149" t="s">
         <v>30</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="B150" t="s">
         <v>31</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="B151" t="s">
         <v>32</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="B152" t="s">
         <v>33</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="B154" t="s">
         <v>34</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="B155" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="B156" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="B157" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="B158" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="B159" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="B160" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="B161" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="B162" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="B163" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="B164" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="B165" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="B166" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
